--- a/devdoc.xlsx
+++ b/devdoc.xlsx
@@ -665,7 +665,7 @@
   <dimension ref="A2:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/devdoc.xlsx
+++ b/devdoc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>未实现功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -102,6 +102,14 @@
   </si>
   <si>
     <t>查看作者信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞列表、评论列表不能及时出现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态排序错误，不按时间序</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -306,6 +314,12 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -313,12 +327,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -662,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E66"/>
+  <dimension ref="A2:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -689,27 +697,27 @@
       </c>
     </row>
     <row r="3" spans="3:5">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="3:5">
-      <c r="C4" s="11"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="3:5">
-      <c r="C5" s="11"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
@@ -718,73 +726,77 @@
       </c>
     </row>
     <row r="6" spans="3:5">
-      <c r="C6" s="12"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
+      <c r="C7" s="14"/>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="13" t="s">
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="3:5">
-      <c r="C9" s="10" t="s">
+    <row r="10" spans="3:5">
+      <c r="C10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="11"/>
       <c r="D10" s="6"/>
       <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" s="13"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:5">
-      <c r="C11" s="12"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="13" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="14"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="10" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="12"/>
       <c r="D13" s="6"/>
       <c r="E13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="14"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="3:5">
       <c r="C15" s="6"/>
@@ -997,13 +1009,13 @@
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="3:5">
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
     </row>
     <row r="58" spans="3:5">
       <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
+      <c r="D58" s="6"/>
       <c r="E58" s="7"/>
     </row>
     <row r="59" spans="3:5">
@@ -1046,11 +1058,19 @@
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
     </row>
+    <row r="67" spans="3:5">
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="3:5">
+      <c r="D68" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C3:C7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/devdoc.xlsx
+++ b/devdoc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>未实现功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -77,39 +77,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>物品查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoticeViewController 消息界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CalendarViewController 日程界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增删日程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程拉取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看作者信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞列表、评论列表不能及时出现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态排序错误，不按时间序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>发布新物品</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>物品查询</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoticeViewController 消息界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CalendarViewController 日程界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增删日程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程拉取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看作者信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点赞列表、评论列表不能及时出现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态排序错误，不按时间序</t>
+    <t>信息拉取，重复</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -272,8 +276,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -330,17 +336,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -673,7 +681,7 @@
   <dimension ref="A2:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -722,29 +730,29 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="3:5">
       <c r="C6" s="13"/>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" s="14"/>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -763,39 +771,41 @@
       <c r="C10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" s="13"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="4" t="s">
-        <v>14</v>
+      <c r="E11" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
       <c r="C12" s="14"/>
       <c r="D12" s="6"/>
       <c r="E12" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="3:5">
       <c r="C13" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="3:5">
       <c r="C14" s="14"/>
       <c r="D14" s="6"/>
       <c r="E14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="3:5">

--- a/devdoc.xlsx
+++ b/devdoc.xlsx
@@ -771,7 +771,7 @@
       <c r="C10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="11" t="s">

--- a/devdoc.xlsx
+++ b/devdoc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>未实现功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -114,6 +114,10 @@
   </si>
   <si>
     <t>信息拉取，重复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindThingsViewController 寻物平台界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -276,8 +280,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -336,19 +344,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="17">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -681,7 +693,7 @@
   <dimension ref="A2:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -809,9 +821,13 @@
       </c>
     </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="3:5">
       <c r="C16" s="6"/>

--- a/devdoc.xlsx
+++ b/devdoc.xlsx
@@ -693,7 +693,7 @@
   <dimension ref="A2:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -772,7 +772,7 @@
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="10" t="s">

--- a/devdoc.xlsx
+++ b/devdoc.xlsx
@@ -73,10 +73,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>信息拉取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>物品查询</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -118,6 +114,10 @@
   </si>
   <si>
     <t>FindThingsViewController 寻物平台界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传头像</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -125,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -174,8 +174,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +224,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -280,7 +294,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -298,8 +312,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -343,8 +361,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="21">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -353,6 +374,8 @@
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -361,6 +384,8 @@
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -693,7 +718,7 @@
   <dimension ref="A2:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -742,97 +767,96 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="3:5">
       <c r="C6" s="13"/>
       <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" s="14"/>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="6" t="s">
-        <v>15</v>
+      <c r="C8" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="3:5">
-      <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="C9" s="14"/>
       <c r="D9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="10" t="s">
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="12" t="s">
+    <row r="11" spans="3:5">
+      <c r="C11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5">
-      <c r="C11" s="13"/>
       <c r="D11" s="6"/>
       <c r="E11" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="14"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="6"/>
       <c r="E12" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="C13" s="14"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="14"/>
+      <c r="C14" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="C15" s="14"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="10" t="s">
-        <v>14</v>
+      <c r="E15" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="3:5">
-      <c r="C16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="3:5">
       <c r="C17" s="6"/>
@@ -1040,9 +1064,9 @@
       <c r="E57" s="6"/>
     </row>
     <row r="58" spans="3:5">
-      <c r="C58" s="7"/>
+      <c r="C58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="7"/>
+      <c r="E58" s="6"/>
     </row>
     <row r="59" spans="3:5">
       <c r="C59" s="7"/>
@@ -1090,13 +1114,16 @@
       <c r="E67" s="7"/>
     </row>
     <row r="68" spans="3:5">
+      <c r="C68" s="7"/>
       <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C14"/>
+  <mergeCells count="4">
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/devdoc.xlsx
+++ b/devdoc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>未实现功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -45,79 +45,91 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>FreshNewsViewController   新鲜事界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToolViewController 工具界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>条目图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯录有时候拉取不出来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布长文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecondTradeViewController 二手交易平台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoticeViewController 消息界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CalendarViewController 日程界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增删日程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程拉取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看作者信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞列表、评论列表不能及时出现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态排序错误，不按时间序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布新物品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息拉取，重复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindThingsViewController 寻物平台界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>发布图片状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FreshNewsViewController   新鲜事界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ToolViewController 工具界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>条目图片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通讯录有时候拉取不出来</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布长文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SecondTradeViewController 二手交易平台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品查询</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoticeViewController 消息界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CalendarViewController 日程界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增删日程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程拉取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看作者信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点赞列表、评论列表不能及时出现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态排序错误，不按时间序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布新物品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息拉取，重复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindThingsViewController 寻物平台界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传头像</t>
+    <t>表情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片下载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器端图片不存在时异常</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -317,7 +329,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -362,6 +374,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -715,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E68"/>
+  <dimension ref="A2:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -743,13 +758,13 @@
     </row>
     <row r="3" spans="3:5">
       <c r="C3" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>6</v>
+      <c r="E3" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="3:5">
@@ -758,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:5">
@@ -767,105 +782,111 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="3:5">
       <c r="C6" s="13"/>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" s="14"/>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" s="13"/>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="14"/>
+      <c r="D10" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13" s="13"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="14"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="C15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="3:5">
-      <c r="C9" s="14"/>
-      <c r="D9" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5">
-      <c r="C11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="13"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="14"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5">
-      <c r="C15" s="14"/>
       <c r="D15" s="6"/>
       <c r="E15" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="3:5">
-      <c r="C16" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="C16" s="14"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="10" t="s">
-        <v>13</v>
+      <c r="E16" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="3:5">
@@ -1069,9 +1090,9 @@
       <c r="E58" s="6"/>
     </row>
     <row r="59" spans="3:5">
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
     </row>
     <row r="60" spans="3:5">
       <c r="C60" s="7"/>
@@ -1118,12 +1139,17 @@
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
     </row>
+    <row r="69" spans="3:5">
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="C3:C7"/>
-    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/devdoc.xlsx
+++ b/devdoc.xlsx
@@ -97,39 +97,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>发布新物品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息拉取，重复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindThingsViewController 寻物平台界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布图片状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片下载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器端图片不存在时异常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>状态排序错误，不按时间序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布新物品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息拉取，重复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindThingsViewController 寻物平台界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传头像</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布图片状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片下载</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器端图片不存在时异常</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -364,6 +364,12 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -371,12 +377,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -733,7 +733,7 @@
   <dimension ref="A2:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -757,18 +757,18 @@
       </c>
     </row>
     <row r="3" spans="3:5">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="3:5">
-      <c r="C4" s="13"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
@@ -777,7 +777,7 @@
       </c>
     </row>
     <row r="5" spans="3:5">
-      <c r="C5" s="13"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
@@ -786,23 +786,23 @@
       </c>
     </row>
     <row r="6" spans="3:5">
-      <c r="C6" s="13"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>23</v>
+      <c r="E6" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="14"/>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
+      <c r="C7" s="16"/>
+      <c r="D7" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -811,14 +811,14 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="3:5">
-      <c r="C9" s="13"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="3:5">
-      <c r="C10" s="14"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="11" t="s">
         <v>9</v>
       </c>
@@ -828,35 +828,35 @@
         <v>7</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="13"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="6"/>
       <c r="E13" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="14"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="6"/>
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="6"/>
@@ -865,7 +865,7 @@
       </c>
     </row>
     <row r="16" spans="3:5">
-      <c r="C16" s="14"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="6"/>
       <c r="E16" s="4" t="s">
         <v>16</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="17" spans="3:5">
       <c r="C17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="10" t="s">
@@ -882,10 +882,10 @@
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="E18" s="6"/>
     </row>

--- a/devdoc.xlsx
+++ b/devdoc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>未实现功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -130,6 +130,18 @@
   </si>
   <si>
     <t>状态排序错误，不按时间序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯录管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -733,7 +745,7 @@
   <dimension ref="A2:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -890,12 +902,18 @@
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="E19" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>

--- a/devdoc.xlsx
+++ b/devdoc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>未实现功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -142,6 +142,14 @@
   </si>
   <si>
     <t>通讯录管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息到时，声音</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -745,7 +753,7 @@
   <dimension ref="A2:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -918,9 +926,13 @@
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="E21" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="6"/>

--- a/devdoc.xlsx
+++ b/devdoc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>未实现功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -150,6 +150,22 @@
   </si>
   <si>
     <t>消息到时，声音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气泡cell高度计算会出错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘偶尔会消失不掉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个字的时候，emotionTextView会出错</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -750,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E69"/>
+  <dimension ref="A2:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -935,18 +951,26 @@
       </c>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="C22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="3:5">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="3:5">
@@ -1125,9 +1149,9 @@
       <c r="E59" s="6"/>
     </row>
     <row r="60" spans="3:5">
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
     </row>
     <row r="61" spans="3:5">
       <c r="C61" s="7"/>
@@ -1174,12 +1198,18 @@
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
     </row>
+    <row r="70" spans="3:5">
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C22:C24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/devdoc.xlsx
+++ b/devdoc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>未实现功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -166,6 +166,10 @@
   </si>
   <si>
     <t>一个字的时候，emotionTextView会出错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选表情不正确</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -766,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E70"/>
+  <dimension ref="A2:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -962,20 +966,22 @@
     <row r="23" spans="3:5">
       <c r="C23" s="15"/>
       <c r="D23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" s="15"/>
+      <c r="D24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="3:5">
-      <c r="C24" s="16"/>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="16"/>
+      <c r="D25" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="3:5">
@@ -1154,9 +1160,9 @@
       <c r="E60" s="6"/>
     </row>
     <row r="61" spans="3:5">
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
     </row>
     <row r="62" spans="3:5">
       <c r="C62" s="7"/>
@@ -1202,6 +1208,11 @@
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
+    </row>
+    <row r="71" spans="3:5">
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1209,7 +1220,7 @@
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C22:C25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/devdoc.xlsx
+++ b/devdoc.xlsx
@@ -157,15 +157,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>键盘偶尔会消失不掉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个字的时候，emotionTextView会出错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>气泡cell高度计算会出错</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>键盘偶尔会消失不掉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个字的时候，emotionTextView会出错</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -773,7 +773,7 @@
   <dimension ref="A2:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -958,29 +958,29 @@
       <c r="C22" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>34</v>
+      <c r="D22" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="15"/>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="15"/>
-      <c r="D24" s="2" t="s">
-        <v>36</v>
+      <c r="D24" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="3:5">
       <c r="C25" s="16"/>
       <c r="D25" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="6"/>
     </row>

--- a/devdoc.xlsx
+++ b/devdoc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>未实现功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -170,6 +170,14 @@
   </si>
   <si>
     <t>选表情不正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表情毛边</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表情动画效果</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -346,8 +354,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -420,7 +432,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="25">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -431,6 +443,8 @@
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -441,6 +455,8 @@
     <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -773,7 +789,7 @@
   <dimension ref="A2:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -961,14 +977,18 @@
       <c r="D22" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="6"/>
+      <c r="E22" s="10" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="15"/>
       <c r="D23" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="6"/>
+      <c r="E23" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="15"/>

--- a/devdoc.xlsx
+++ b/devdoc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>未实现功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -29,155 +29,163 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>发布新状态后应该直接在界面显示，偶尔会拉取不到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreshNewsViewController   新鲜事界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToolViewController 工具界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>条目图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯录有时候拉取不出来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布长文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecondTradeViewController 二手交易平台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoticeViewController 消息界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CalendarViewController 日程界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程拉取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看作者信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞列表、评论列表不能及时出现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布新物品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息拉取，重复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindThingsViewController 寻物平台界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布图片状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片下载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器端图片不存在时异常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态排序错误，不按时间序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯录管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息到时，声音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘偶尔会消失不掉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个字的时候，emotionTextView会出错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气泡cell高度计算会出错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选表情不正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表情毛边</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表情动画效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片加载失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>菜单不消失</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>发布新状态后应该直接在界面显示，偶尔会拉取不到</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bug</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FreshNewsViewController   新鲜事界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ToolViewController 工具界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>条目图片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通讯录有时候拉取不出来</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布长文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SecondTradeViewController 二手交易平台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品查询</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoticeViewController 消息界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CalendarViewController 日程界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增删日程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程拉取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看作者信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点赞列表、评论列表不能及时出现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布新物品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息拉取，重复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindThingsViewController 寻物平台界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传头像</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布图片状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片下载</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器端图片不存在时异常</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态排序错误，不按时间序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通讯录管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>推送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息到时，声音</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>键盘偶尔会消失不掉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个字的时候，emotionTextView会出错</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气泡cell高度计算会出错</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选表情不正确</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表情毛边</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表情动画效果</t>
+    <t>信息详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布日程</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +251,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,12 +261,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,7 +383,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -389,34 +391,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -789,450 +788,454 @@
   <dimension ref="A2:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="54.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="51.33203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="41.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:5" ht="27">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="3:5">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" s="14"/>
+      <c r="D4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" s="14"/>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" s="14"/>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" s="15"/>
+      <c r="D7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" s="14"/>
+      <c r="D9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="15"/>
+      <c r="D10" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="D11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13" s="14"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="15"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="C15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="C16" s="15"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="3:5">
-      <c r="C4" s="15"/>
-      <c r="D4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5">
-      <c r="C5" s="15"/>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5">
-      <c r="C6" s="15"/>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="16"/>
-      <c r="D7" s="11" t="s">
+      <c r="D18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="3:5">
-      <c r="C9" s="15"/>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="16"/>
-      <c r="D10" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5">
-      <c r="C11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="15"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="16"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="3:5">
-      <c r="C15" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5">
-      <c r="C16" s="16"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5">
-      <c r="C17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="6" t="s">
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="4" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="C21" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="6" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="6" t="s">
+    </row>
+    <row r="22" spans="3:5">
+      <c r="C22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="4" t="s">
+      <c r="D22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5">
+      <c r="C23" s="14"/>
+      <c r="D23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" s="14"/>
+      <c r="D24" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="15"/>
+      <c r="D25" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="15"/>
-      <c r="D23" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5">
-      <c r="C24" s="15"/>
-      <c r="D24" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25" s="16"/>
-      <c r="D25" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="3:5">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="3:5">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="3:5">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="3:5">
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="3:5">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="3:5">
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="3:5">
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="3:5">
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="3:5">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="3:5">
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="3:5">
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" spans="3:5">
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" spans="3:5">
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
     </row>
     <row r="41" spans="3:5">
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="3:5">
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
     </row>
     <row r="43" spans="3:5">
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="3:5">
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
     </row>
     <row r="45" spans="3:5">
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
     </row>
     <row r="46" spans="3:5">
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
     </row>
     <row r="47" spans="3:5">
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" spans="3:5">
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
     </row>
     <row r="49" spans="3:5">
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
     </row>
     <row r="50" spans="3:5">
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
     </row>
     <row r="51" spans="3:5">
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
     </row>
     <row r="52" spans="3:5">
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
     </row>
     <row r="53" spans="3:5">
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" spans="3:5">
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
     </row>
     <row r="55" spans="3:5">
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="3:5">
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
     </row>
     <row r="57" spans="3:5">
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
     </row>
     <row r="58" spans="3:5">
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
     </row>
     <row r="59" spans="3:5">
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
     </row>
     <row r="60" spans="3:5">
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
     </row>
     <row r="61" spans="3:5">
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
     </row>
     <row r="62" spans="3:5">
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
     </row>
     <row r="63" spans="3:5">
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
     </row>
     <row r="64" spans="3:5">
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/devdoc.xlsx
+++ b/devdoc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>未实现功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -77,115 +77,123 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>查看作者信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞列表、评论列表不能及时出现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布新物品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息拉取，重复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindThingsViewController 寻物平台界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布图片状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片下载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器端图片不存在时异常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态排序错误，不按时间序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯录管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息到时，声音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘偶尔会消失不掉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个字的时候，emotionTextView会出错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气泡cell高度计算会出错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选表情不正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表情毛边</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表情动画效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片加载失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单不消失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布日程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>日程拉取</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>查看作者信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点赞列表、评论列表不能及时出现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布新物品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息拉取，重复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindThingsViewController 寻物平台界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传头像</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布图片状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片下载</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器端图片不存在时异常</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态排序错误，不按时间序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通讯录管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>推送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息到时，声音</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>键盘偶尔会消失不掉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个字的时候，emotionTextView会出错</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气泡cell高度计算会出错</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选表情不正确</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表情毛边</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表情动画效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片加载失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单不消失</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布日程</t>
+    <t>发布日程项后没有马上更新数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示图片详情</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -785,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E71"/>
+  <dimension ref="A2:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -819,13 +827,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" s="14"/>
       <c r="D4" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>9</v>
@@ -837,179 +845,183 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="3:5">
       <c r="C6" s="14"/>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" s="14"/>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" s="15"/>
+      <c r="D8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="14"/>
+      <c r="D10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" s="15"/>
+      <c r="D11" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="15"/>
-      <c r="D7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="3:5">
-      <c r="C9" s="14"/>
-      <c r="D9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="15"/>
-      <c r="D10" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5">
-      <c r="C11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="14"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="9" t="s">
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="14"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="15"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="C15" s="15"/>
       <c r="D15" s="5"/>
       <c r="E15" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="C16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" s="15"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="10" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5">
-      <c r="C16" s="15"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5">
-      <c r="C17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="C22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4" t="s">
+    </row>
+    <row r="23" spans="3:5">
+      <c r="C23" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="14"/>
       <c r="D23" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="14"/>
       <c r="D24" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="25" spans="3:5">
-      <c r="C25" s="15"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="3:5">
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="3:5">
@@ -1188,9 +1200,9 @@
       <c r="E61" s="5"/>
     </row>
     <row r="62" spans="3:5">
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
     </row>
     <row r="63" spans="3:5">
       <c r="C63" s="6"/>
@@ -1237,13 +1249,18 @@
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
     </row>
+    <row r="72" spans="3:5">
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C23:C26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/devdoc.xlsx
+++ b/devdoc.xlsx
@@ -81,119 +81,119 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>发布新物品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息拉取，重复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindThingsViewController 寻物平台界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布图片状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片下载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器端图片不存在时异常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态排序错误，不按时间序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯录管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息到时，声音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘偶尔会消失不掉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个字的时候，emotionTextView会出错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气泡cell高度计算会出错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选表情不正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表情毛边</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表情动画效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片加载失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单不消失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布日程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程拉取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布日程项后没有马上更新数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示图片详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>点赞列表、评论列表不能及时出现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布新物品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息拉取，重复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindThingsViewController 寻物平台界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传头像</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布图片状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片下载</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器端图片不存在时异常</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态排序错误，不按时间序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通讯录管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>推送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息到时，声音</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>键盘偶尔会消失不掉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个字的时候，emotionTextView会出错</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气泡cell高度计算会出错</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选表情不正确</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表情毛边</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表情动画效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片加载失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单不消失</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布日程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程拉取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布日程项后没有马上更新数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示图片详情</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -364,8 +364,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -439,7 +441,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -452,6 +454,7 @@
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -464,6 +467,7 @@
     <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -793,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E72"/>
+  <dimension ref="A2:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -827,13 +831,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" s="14"/>
       <c r="D4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>9</v>
@@ -850,24 +854,24 @@
     </row>
     <row r="6" spans="3:5">
       <c r="C6" s="14"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>43</v>
+      <c r="D6" s="5"/>
+      <c r="E6" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" s="14"/>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
+      <c r="D7" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" s="15"/>
       <c r="D8" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -875,15 +879,14 @@
       <c r="C9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="3:5">
       <c r="C10" s="14"/>
       <c r="D10" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="12"/>
     </row>
@@ -898,7 +901,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>7</v>
@@ -908,11 +911,11 @@
       <c r="C13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
+      <c r="D13" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="3:5">
@@ -926,7 +929,7 @@
       <c r="C15" s="15"/>
       <c r="D15" s="5"/>
       <c r="E15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="3:5">
@@ -934,99 +937,99 @@
         <v>13</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" s="14"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" s="15"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="10" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5">
-      <c r="C17" s="15"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="3:5">
+      <c r="C23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4" t="s">
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" s="13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5">
-      <c r="C24" s="14"/>
       <c r="D24" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="25" spans="3:5">
       <c r="C25" s="14"/>
       <c r="D25" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="26" spans="3:5">
-      <c r="C26" s="15"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="3:5">
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="3:5">
@@ -1205,9 +1208,9 @@
       <c r="E62" s="5"/>
     </row>
     <row r="63" spans="3:5">
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
     </row>
     <row r="64" spans="3:5">
       <c r="C64" s="6"/>
@@ -1254,13 +1257,18 @@
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
     </row>
+    <row r="73" spans="3:5">
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="C3:C8"/>
     <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C24:C27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/devdoc.xlsx
+++ b/devdoc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>未实现功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -194,6 +194,14 @@
   </si>
   <si>
     <t>点赞列表、评论列表不能及时出现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户个人信息界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称错误</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -800,7 +808,7 @@
   <dimension ref="A2:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1033,8 +1041,12 @@
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="3:5">
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="3:5">

--- a/devdoc.xlsx
+++ b/devdoc.xlsx
@@ -49,159 +49,159 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>通讯录有时候拉取不出来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布长文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecondTradeViewController 二手交易平台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoticeViewController 消息界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CalendarViewController 日程界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看作者信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布新物品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息拉取，重复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindThingsViewController 寻物平台界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布图片状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片下载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器端图片不存在时异常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态排序错误，不按时间序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯录管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息到时，声音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘偶尔会消失不掉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个字的时候，emotionTextView会出错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气泡cell高度计算会出错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选表情不正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表情毛边</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表情动画效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片加载失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单不消失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布日程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程拉取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布日程项后没有马上更新数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示图片详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞列表、评论列表不能及时出现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户个人信息界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>条目图片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通讯录有时候拉取不出来</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布长文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SecondTradeViewController 二手交易平台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品查询</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoticeViewController 消息界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CalendarViewController 日程界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看作者信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布新物品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息拉取，重复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindThingsViewController 寻物平台界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传头像</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布图片状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片下载</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器端图片不存在时异常</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态排序错误，不按时间序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通讯录管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>推送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息到时，声音</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>键盘偶尔会消失不掉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个字的时候，emotionTextView会出错</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气泡cell高度计算会出错</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选表情不正确</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表情毛边</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表情动画效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片加载失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单不消失</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布日程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程拉取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布日程项后没有马上更新数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示图片详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点赞列表、评论列表不能及时出现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户个人信息界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>昵称错误</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -258,16 +258,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,12 +294,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -401,7 +387,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -431,9 +417,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -807,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -832,76 +815,76 @@
       </c>
     </row>
     <row r="3" spans="3:5">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="3:5">
-      <c r="C4" s="14"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="3:5">
-      <c r="C5" s="14"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="3:5">
-      <c r="C6" s="14"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="5"/>
       <c r="E6" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" s="13"/>
+      <c r="D7" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="14"/>
-      <c r="D7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>18</v>
+      <c r="E7" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="15"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="3:5">
-      <c r="C9" s="13" t="s">
-        <v>12</v>
+      <c r="C9" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="3:5">
-      <c r="C10" s="14"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="3:5">
-      <c r="C11" s="15"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="3:5">
@@ -909,143 +892,143 @@
         <v>6</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="13" t="s">
-        <v>10</v>
+      <c r="C13" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="14"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="5"/>
       <c r="E14" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="15"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="5"/>
       <c r="E15" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="C16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="3:5">
-      <c r="C16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="14"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="5"/>
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="15"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="5"/>
       <c r="E18" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="3:5">
-      <c r="C24" s="13" t="s">
+      <c r="D24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="13"/>
+      <c r="D25" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26" s="13"/>
+      <c r="D26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27" s="14"/>
+      <c r="D27" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25" s="14"/>
-      <c r="D25" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5">
-      <c r="C26" s="14"/>
-      <c r="D26" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="3:5">
-      <c r="C27" s="15"/>
-      <c r="D27" s="10" t="s">
-        <v>30</v>
       </c>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E28" s="5"/>
     </row>

--- a/devdoc.xlsx
+++ b/devdoc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>未实现功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -202,6 +202,30 @@
   </si>
   <si>
     <t>条目图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息详情页面scrollview内容显示不全</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片上传</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论列表不能及时更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MessageDetailViewController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像显示</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -358,8 +382,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -432,7 +458,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="29">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -446,6 +472,7 @@
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -459,6 +486,7 @@
     <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -791,7 +819,7 @@
   <dimension ref="A2:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -845,7 +873,6 @@
     </row>
     <row r="6" spans="3:5">
       <c r="C6" s="13"/>
-      <c r="D6" s="5"/>
       <c r="E6" s="10" t="s">
         <v>41</v>
       </c>
@@ -1014,7 +1041,9 @@
       <c r="D26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="14"/>
@@ -1033,18 +1062,28 @@
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="3:5">
-      <c r="C29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="30" spans="3:5">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="C30" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="3:5">
@@ -1258,7 +1297,8 @@
       <c r="E73" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="C30:C31"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="C3:C8"/>

--- a/devdoc.xlsx
+++ b/devdoc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>未实现功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>上传头像</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>发布图片状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -226,6 +222,30 @@
   </si>
   <si>
     <t>头像显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像更新完后不能及时在这里反应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉更新卡死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉数据卡死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FullImageViewController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>label显示状态信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态中带表情</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -816,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E73"/>
+  <dimension ref="A2:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -850,13 +870,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" s="13"/>
       <c r="D4" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>8</v>
@@ -873,228 +893,240 @@
     </row>
     <row r="6" spans="3:5">
       <c r="C6" s="13"/>
-      <c r="E6" s="10" t="s">
-        <v>41</v>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" s="13"/>
-      <c r="D7" s="10" t="s">
-        <v>42</v>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="14"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="3:5">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="13"/>
-      <c r="D10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="11"/>
-    </row>
     <row r="11" spans="3:5">
-      <c r="C11" s="14"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" s="14"/>
+      <c r="D12" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="5" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="12" t="s">
+      <c r="E13" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="D14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="13"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="9" t="s">
+    <row r="15" spans="3:5">
+      <c r="C15" s="13"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="3:5">
-      <c r="C15" s="14"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4" t="s">
+    <row r="16" spans="3:5">
+      <c r="C16" s="14"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="3:5">
-      <c r="C16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="10" t="s">
+    <row r="18" spans="3:5">
+      <c r="C18" s="13"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" s="14"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="10" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5">
-      <c r="C17" s="13"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="14"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4" t="s">
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="3:5">
-      <c r="C24" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25" s="13"/>
       <c r="D25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="26" spans="3:5">
       <c r="C26" s="13"/>
       <c r="D26" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>51</v>
+        <v>31</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="3:5">
-      <c r="C27" s="14"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="28" spans="3:5">
-      <c r="C28" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="C28" s="14"/>
       <c r="D28" s="10" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="3:5">
       <c r="C29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="4" t="s">
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="C32" s="14"/>
+      <c r="D32" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="30" spans="3:5">
-      <c r="C30" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="3:5">
-      <c r="C31" s="14"/>
-      <c r="D31" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="3:5">
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="3:5">
-      <c r="C33" s="5"/>
+      <c r="C33" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="E33" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="34" spans="3:5">
       <c r="C34" s="5"/>
@@ -1247,9 +1279,9 @@
       <c r="E63" s="5"/>
     </row>
     <row r="64" spans="3:5">
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
     </row>
     <row r="65" spans="3:5">
       <c r="C65" s="6"/>
@@ -1296,14 +1328,19 @@
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
     </row>
+    <row r="74" spans="3:5">
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C25:C28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/devdoc.xlsx
+++ b/devdoc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>未实现功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -246,6 +246,10 @@
   </si>
   <si>
     <t>状态中带表情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看作者信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -839,7 +843,7 @@
   <dimension ref="A2:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -887,8 +891,8 @@
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
+      <c r="E5" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="3:5">

--- a/devdoc.xlsx
+++ b/devdoc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>未实现功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -250,6 +250,10 @@
   </si>
   <si>
     <t>查看作者信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方发来的数据，界面中没有及时反映</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +441,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -480,6 +484,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -840,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E74"/>
+  <dimension ref="A2:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -940,202 +947,204 @@
     </row>
     <row r="11" spans="3:5">
       <c r="C11" s="13"/>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" s="13"/>
+      <c r="D12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="14"/>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13" s="14"/>
+      <c r="D13" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="5" t="s">
+    <row r="14" spans="3:5">
+      <c r="C14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="C15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="E15" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="C16" s="13"/>
+      <c r="D16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5">
-      <c r="C15" s="13"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="3:5">
-      <c r="C16" s="14"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4" t="s">
+    <row r="17" spans="3:5">
+      <c r="C17" s="14"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="3:5">
-      <c r="C17" s="12" t="s">
+    <row r="18" spans="3:5">
+      <c r="C18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" s="13"/>
+      <c r="D19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="13"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="14"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="14"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="10" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="3:5">
-      <c r="C25" s="12" t="s">
+    <row r="26" spans="3:5">
+      <c r="C26" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="9" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5">
-      <c r="C26" s="13"/>
-      <c r="D26" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="13"/>
       <c r="D27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="C28" s="13"/>
+      <c r="D28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29" s="14"/>
+      <c r="D29" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5">
-      <c r="C28" s="14"/>
-      <c r="D28" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="3:5">
-      <c r="C29" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="3:5">
       <c r="C30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="4" t="s">
+      <c r="D31" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="3:5">
-      <c r="C31" s="12" t="s">
+    <row r="32" spans="3:5">
+      <c r="C32" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="14"/>
+      <c r="D33" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="3:5">
-      <c r="C32" s="14"/>
-      <c r="D32" s="9" t="s">
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="C33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="3:5">
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="3:5">
       <c r="C35" s="5"/>
@@ -1288,13 +1297,13 @@
       <c r="E64" s="5"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
     </row>
     <row r="66" spans="3:5">
       <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
+      <c r="D66" s="5"/>
       <c r="E66" s="6"/>
     </row>
     <row r="67" spans="3:5">
@@ -1337,14 +1346,22 @@
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
     </row>
+    <row r="75" spans="3:5">
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="3:5">
+      <c r="D76" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
     <mergeCell ref="C3:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C26:C29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/devdoc.xlsx
+++ b/devdoc.xlsx
@@ -221,39 +221,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>头像更新完后不能及时在这里反应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉更新卡死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉数据卡死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FullImageViewController</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>label显示状态信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态中带表情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看作者信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方发来的数据，界面中没有及时反映</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>头像显示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像更新完后不能及时在这里反应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉更新卡死</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉数据卡死</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FullImageViewController</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>label显示状态信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态中带表情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看作者信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对方发来的数据，界面中没有及时反映</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -849,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -899,22 +899,22 @@
         <v>2</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="3:5">
       <c r="C6" s="13"/>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" s="13"/>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>40</v>
@@ -939,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
@@ -948,7 +948,7 @@
     <row r="11" spans="3:5">
       <c r="C11" s="13"/>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="15"/>
     </row>
@@ -1090,8 +1090,8 @@
       <c r="D28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>50</v>
+      <c r="E28" s="10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="3:5">
@@ -1137,13 +1137,13 @@
     </row>
     <row r="34" spans="3:5">
       <c r="C34" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="3:5">

--- a/devdoc.xlsx
+++ b/devdoc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>未实现功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>CalendarViewController 日程界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看作者信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -850,7 +846,7 @@
   <dimension ref="A2:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -881,13 +877,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" s="13"/>
       <c r="D4" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>8</v>
@@ -899,38 +895,38 @@
         <v>2</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="3:5">
       <c r="C6" s="13"/>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" s="13"/>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" s="13"/>
       <c r="D8" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="3:5">
       <c r="C9" s="14"/>
       <c r="D9" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="5"/>
     </row>
@@ -939,23 +935,23 @@
         <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" s="13"/>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="15"/>
     </row>
     <row r="12" spans="3:5">
       <c r="C12" s="13"/>
       <c r="D12" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="11"/>
     </row>
@@ -971,7 +967,7 @@
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="3:5">
@@ -979,16 +975,16 @@
         <v>9</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="3:5">
       <c r="C16" s="13"/>
       <c r="D16" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>10</v>
@@ -998,7 +994,7 @@
       <c r="C17" s="14"/>
       <c r="D17" s="5"/>
       <c r="E17" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="3:5">
@@ -1007,13 +1003,13 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="13"/>
       <c r="D19" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="10"/>
     </row>
@@ -1021,12 +1017,12 @@
       <c r="C20" s="14"/>
       <c r="D20" s="5"/>
       <c r="E20" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="9" t="s">
@@ -1035,95 +1031,95 @@
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="3:5">
       <c r="C25" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="3:5">
       <c r="C26" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="13"/>
       <c r="D27" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="13"/>
       <c r="D28" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="3:5">
       <c r="C29" s="14"/>
       <c r="D29" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="3:5">
       <c r="C30" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="3:5">
       <c r="C31" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="3:5">
       <c r="C32" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -1131,19 +1127,19 @@
     <row r="33" spans="3:5">
       <c r="C33" s="14"/>
       <c r="D33" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="3:5">
       <c r="C34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="35" spans="3:5">

--- a/devdoc.xlsx
+++ b/devdoc.xlsx
@@ -843,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E76"/>
+  <dimension ref="A2:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1067,7 +1067,9 @@
       <c r="C26" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="E26" s="9" t="s">
         <v>31</v>
       </c>
@@ -1075,7 +1077,7 @@
     <row r="27" spans="3:5">
       <c r="C27" s="13"/>
       <c r="D27" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>32</v>
@@ -1084,7 +1086,7 @@
     <row r="28" spans="3:5">
       <c r="C28" s="13"/>
       <c r="D28" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>57</v>
@@ -1093,7 +1095,7 @@
     <row r="29" spans="3:5">
       <c r="C29" s="14"/>
       <c r="D29" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" s="5"/>
     </row>
@@ -1102,7 +1104,7 @@
         <v>41</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E30" s="5"/>
     </row>
@@ -1110,9 +1112,7 @@
       <c r="C31" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="D31" s="5"/>
       <c r="E31" s="4" t="s">
         <v>44</v>
       </c>
@@ -1121,13 +1121,15 @@
       <c r="C32" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="5"/>
+      <c r="D32" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" s="14"/>
-      <c r="D33" s="4" t="s">
-        <v>47</v>
+      <c r="D33" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="E33" s="5"/>
     </row>
@@ -1135,9 +1137,7 @@
       <c r="C34" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="D34" s="5"/>
       <c r="E34" s="4" t="s">
         <v>53</v>
       </c>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="66" spans="3:5">
       <c r="C66" s="6"/>
-      <c r="D66" s="5"/>
+      <c r="D66" s="6"/>
       <c r="E66" s="6"/>
     </row>
     <row r="67" spans="3:5">
@@ -1346,9 +1346,6 @@
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
-    </row>
-    <row r="76" spans="3:5">
-      <c r="D76" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/devdoc.xlsx
+++ b/devdoc.xlsx
@@ -406,8 +406,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -485,7 +487,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="31">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -500,6 +502,7 @@
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -514,6 +517,7 @@
     <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -846,7 +850,7 @@
   <dimension ref="A2:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -993,7 +997,7 @@
     <row r="17" spans="3:5">
       <c r="C17" s="14"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1113,7 +1117,7 @@
         <v>46</v>
       </c>
       <c r="D31" s="5"/>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="10" t="s">
         <v>44</v>
       </c>
     </row>
